--- a/branches/update-code-systems/StructureDefinition-hiv-test-results.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-code-systems/StructureDefinition-hiv-test-results.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-test-results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -676,6 +676,99 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>Viral Load Result</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.subject</t>
   </si>
   <si>
@@ -969,6 +1062,21 @@
     <t>363713009 |Has interpretation|</t>
   </si>
   <si>
+    <t>Observation.interpretation.id</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.extension</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.coding</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.text</t>
+  </si>
+  <si>
+    <t>Viral Load Suppression Status</t>
+  </si>
+  <si>
     <t>Observation.note</t>
   </si>
   <si>
@@ -1143,29 +1251,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1747,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1784,7 +1870,7 @@
     <col min="26" max="26" width="53.91796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3744,7 +3830,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>92</v>
@@ -3756,7 +3842,7 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>214</v>
@@ -3767,12 +3853,8 @@
       <c r="M17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
@@ -3820,7 +3902,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3832,22 +3914,22 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -3855,14 +3937,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3878,19 +3960,19 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3928,19 +4010,19 @@
         <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3952,7 +4034,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -3961,13 +4043,13 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>82</v>
@@ -3975,21 +4057,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -4001,19 +4083,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4062,13 +4144,13 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
@@ -4077,19 +4159,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4097,18 +4179,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>92</v>
@@ -4123,19 +4205,19 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4145,7 +4227,7 @@
         <v>82</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>82</v>
@@ -4172,14 +4254,16 @@
         <v>82</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>240</v>
@@ -4197,19 +4281,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4217,16 +4301,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4245,19 +4327,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4306,7 +4388,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4341,10 +4423,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4355,7 +4437,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -4367,16 +4449,16 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4426,13 +4508,13 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
@@ -4447,13 +4529,13 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4461,14 +4543,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4487,17 +4569,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4546,13 +4630,13 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
@@ -4561,19 +4645,19 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4581,14 +4665,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4607,19 +4691,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4656,17 +4740,17 @@
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4675,16 +4759,16 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>280</v>
@@ -4693,10 +4777,10 @@
         <v>281</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -4704,13 +4788,13 @@
         <v>283</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>284</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4729,19 +4813,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4790,7 +4874,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4799,16 +4883,16 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>280</v>
@@ -4817,10 +4901,10 @@
         <v>281</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -4848,23 +4932,21 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O26" t="s" s="2">
         <v>289</v>
       </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
@@ -4888,13 +4970,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4921,7 +5003,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4933,13 +5015,13 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -4947,14 +5029,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4970,22 +5052,20 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5010,11 +5090,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5032,7 +5114,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5047,30 +5129,30 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>305</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5078,7 +5160,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
@@ -5090,22 +5172,22 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5142,28 +5224,26 @@
         <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>104</v>
@@ -5172,35 +5252,37 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>92</v>
@@ -5212,21 +5294,23 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5250,13 +5334,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5274,7 +5358,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5283,7 +5367,7 @@
         <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>104</v>
@@ -5292,27 +5376,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5338,16 +5422,16 @@
         <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5372,13 +5456,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5396,7 +5480,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5405,7 +5489,7 @@
         <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>104</v>
@@ -5417,10 +5501,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5431,18 +5515,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>92</v>
@@ -5457,18 +5541,20 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>335</v>
+        <v>191</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5492,13 +5578,11 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5516,13 +5600,13 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
@@ -5534,27 +5618,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5577,17 +5661,15 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>345</v>
+        <v>215</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5636,7 +5718,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>343</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5648,37 +5730,37 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>350</v>
+        <v>218</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5697,20 +5779,18 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>353</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>354</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5746,19 +5826,19 @@
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>352</v>
+        <v>224</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5770,7 +5850,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>358</v>
+        <v>143</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5779,10 +5859,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>360</v>
+        <v>218</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5793,10 +5873,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5807,7 +5887,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5816,19 +5896,23 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>363</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5876,19 +5960,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>365</v>
+        <v>231</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5897,10 +5981,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5911,21 +5995,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -5934,21 +6018,23 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>368</v>
+        <v>236</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -5957,7 +6043,7 @@
         <v>82</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>82</v>
@@ -5996,19 +6082,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6017,10 +6103,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>366</v>
+        <v>242</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6031,45 +6117,45 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>141</v>
+        <v>345</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6118,7 +6204,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6130,7 +6216,7 @@
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6139,10 +6225,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>82</v>
+        <v>347</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6153,10 +6239,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6179,15 +6265,17 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>376</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6212,13 +6300,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6236,7 +6324,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6245,7 +6333,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6254,27 +6342,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6297,16 +6385,20 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>376</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6330,13 +6422,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6354,7 +6446,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6363,7 +6455,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6375,10 +6467,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6389,10 +6481,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6415,20 +6507,18 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>370</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6452,13 +6542,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6476,7 +6566,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6494,27 +6584,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>304</v>
+        <v>376</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6525,7 +6615,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6537,20 +6627,18 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>191</v>
+        <v>379</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6574,13 +6662,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6598,13 +6686,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6616,27 +6704,27 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6647,7 +6735,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6659,17 +6747,19 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6718,19 +6808,19 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>104</v>
+        <v>393</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -6739,10 +6829,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6753,10 +6843,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6779,13 +6869,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>362</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>409</v>
+        <v>215</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6836,7 +6926,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>408</v>
+        <v>217</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6848,7 +6938,7 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -6857,10 +6947,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>411</v>
+        <v>218</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6871,14 +6961,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6894,19 +6984,19 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>413</v>
+        <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>414</v>
+        <v>139</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>415</v>
+        <v>220</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>416</v>
+        <v>141</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6956,7 +7046,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>412</v>
+        <v>224</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6968,7 +7058,7 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -6977,10 +7067,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>418</v>
+        <v>218</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -6991,14 +7081,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7011,24 +7101,26 @@
         <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>420</v>
+        <v>138</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7076,7 +7168,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7088,7 +7180,7 @@
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7097,10 +7189,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>424</v>
+        <v>135</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7111,10 +7203,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7125,7 +7217,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7134,23 +7226,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7198,16 +7286,16 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>104</v>
@@ -7219,10 +7307,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7233,10 +7321,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7259,13 +7347,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7316,7 +7404,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7325,10 +7413,10 @@
         <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7337,10 +7425,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7351,21 +7439,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7377,18 +7465,20 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>139</v>
+        <v>415</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7412,13 +7502,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7436,31 +7526,31 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7471,14 +7561,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7491,25 +7581,25 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>141</v>
+        <v>426</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>147</v>
+        <v>427</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7534,13 +7624,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7558,7 +7648,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7570,19 +7660,19 @@
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7593,10 +7683,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7604,7 +7694,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>92</v>
@@ -7616,22 +7706,20 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>205</v>
+        <v>434</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7656,13 +7744,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7680,10 +7768,10 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>92</v>
@@ -7698,16 +7786,16 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>210</v>
+        <v>435</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7715,10 +7803,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7738,23 +7826,19 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>443</v>
+        <v>214</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -7802,7 +7886,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7820,27 +7904,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>408</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>281</v>
+        <v>439</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7851,7 +7935,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -7860,23 +7944,21 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>441</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -7900,13 +7982,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7924,16 +8006,16 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7945,10 +8027,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>135</v>
+        <v>445</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>294</v>
+        <v>446</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -7959,14 +8041,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7982,23 +8064,21 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>448</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>297</v>
+        <v>449</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>298</v>
+        <v>450</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8022,13 +8102,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8046,7 +8126,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8064,27 +8144,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>303</v>
+        <v>445</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>304</v>
+        <v>452</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>305</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8104,22 +8184,22 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>83</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N53" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="O53" t="s" s="2">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8168,7 +8248,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8189,15 +8269,985 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>359</v>
+        <v>458</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>360</v>
+        <v>459</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>82</v>
       </c>
     </row>
